--- a/backend/processdata/data/output/test.xlsx
+++ b/backend/processdata/data/output/test.xlsx
@@ -21,13 +21,13 @@
     <t>19下午茶甜点！</t>
   </si>
   <si>
+    <t>心海</t>
+  </si>
+  <si>
+    <t>神子</t>
+  </si>
+  <si>
     <t>纳西妲</t>
-  </si>
-  <si>
-    <t>心海</t>
-  </si>
-  <si>
-    <t>神子</t>
   </si>
   <si>
     <t>状态</t>
@@ -610,6 +610,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="30"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -632,7 +635,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -641,13 +650,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -655,12 +661,9 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -671,7 +674,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="B5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
@@ -685,6 +688,12 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
@@ -694,6 +703,9 @@
         <v>11</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -713,7 +725,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -737,6 +749,12 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -749,6 +767,12 @@
         <v>16</v>
       </c>
       <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>17</v>
       </c>
       <c r="E12" t="s">
@@ -757,7 +781,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -776,6 +800,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
@@ -787,6 +814,9 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -798,19 +828,28 @@
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -834,6 +873,9 @@
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
@@ -854,6 +896,12 @@
         <v>25</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
@@ -875,7 +923,10 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
@@ -884,13 +935,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -898,12 +952,15 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
@@ -914,7 +971,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -925,7 +982,7 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="D27">
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
@@ -936,6 +993,12 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -945,9 +1008,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
       </c>
       <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
@@ -958,6 +1027,12 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -970,6 +1045,9 @@
         <v>35</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
@@ -978,12 +1056,9 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
@@ -992,10 +1067,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1003,9 +1084,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
@@ -1017,6 +1104,12 @@
         <v>39</v>
       </c>
       <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
@@ -1027,7 +1120,13 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
       <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
@@ -1036,13 +1135,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1052,6 +1154,12 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <v>1</v>
       </c>
@@ -1061,13 +1169,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>1</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1077,6 +1182,9 @@
       <c r="A40" t="s">
         <v>44</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
       <c r="D40">
         <v>1</v>
       </c>
@@ -1091,19 +1199,22 @@
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>1</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1111,9 +1222,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
@@ -1122,13 +1239,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
-        <v>4</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -1152,6 +1269,12 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1283,13 @@
       <c r="A47" t="s">
         <v>51</v>
       </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
       <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
@@ -1174,6 +1303,12 @@
       <c r="B48">
         <v>2</v>
       </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1317,7 @@
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="C49">
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
@@ -1218,6 +1353,12 @@
       <c r="B52">
         <v>2</v>
       </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1378,7 @@
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="D54">
+      <c r="B54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
@@ -1248,7 +1389,7 @@
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="C55">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
@@ -1263,6 +1404,210 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1276,6 +1621,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="30"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1298,13 +1646,16 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1323,13 +1674,16 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1348,6 +1702,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1359,19 +1716,19 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>2</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1384,6 +1741,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -1395,6 +1755,9 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
@@ -1406,6 +1769,9 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -1428,6 +1794,9 @@
       <c r="B13">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -1439,6 +1808,9 @@
       <c r="B14">
         <v>2</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -1447,6 +1819,9 @@
       <c r="A15" t="s">
         <v>50</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -1483,7 +1858,43 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
